--- a/final_data_pipeline/output/325212longform.xlsx
+++ b/final_data_pipeline/output/325212longform.xlsx
@@ -792,7 +792,7 @@
         <v>73</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB2">
         <v>8000</v>
@@ -881,7 +881,7 @@
         <v>73</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB3">
         <v>8000</v>
@@ -970,7 +970,7 @@
         <v>73</v>
       </c>
       <c r="AA4">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB4">
         <v>8000</v>
@@ -1059,7 +1059,7 @@
         <v>73</v>
       </c>
       <c r="AA5">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB5">
         <v>8000</v>
@@ -1148,7 +1148,7 @@
         <v>73</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB6">
         <v>8000</v>
@@ -1237,7 +1237,7 @@
         <v>73</v>
       </c>
       <c r="AA7">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB7">
         <v>8000</v>
@@ -1326,7 +1326,7 @@
         <v>73</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB8">
         <v>8000</v>
@@ -1415,7 +1415,7 @@
         <v>73</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB9">
         <v>8000</v>
@@ -1504,7 +1504,7 @@
         <v>73</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB10">
         <v>8000</v>
@@ -1593,7 +1593,7 @@
         <v>73</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB11">
         <v>8000</v>
@@ -1682,7 +1682,7 @@
         <v>73</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB12">
         <v>8000</v>
@@ -1771,7 +1771,7 @@
         <v>73</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB13">
         <v>8000</v>
@@ -3996,7 +3996,7 @@
         <v>73</v>
       </c>
       <c r="AA38">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB38">
         <v>8000</v>
@@ -4085,7 +4085,7 @@
         <v>73</v>
       </c>
       <c r="AA39">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB39">
         <v>8000</v>
@@ -4174,7 +4174,7 @@
         <v>73</v>
       </c>
       <c r="AA40">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB40">
         <v>8000</v>
@@ -4263,7 +4263,7 @@
         <v>73</v>
       </c>
       <c r="AA41">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB41">
         <v>8000</v>
@@ -4352,7 +4352,7 @@
         <v>73</v>
       </c>
       <c r="AA42">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB42">
         <v>8000</v>
@@ -4441,7 +4441,7 @@
         <v>73</v>
       </c>
       <c r="AA43">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB43">
         <v>8000</v>
@@ -4530,7 +4530,7 @@
         <v>73</v>
       </c>
       <c r="AA44">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB44">
         <v>8000</v>
@@ -4619,7 +4619,7 @@
         <v>73</v>
       </c>
       <c r="AA45">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB45">
         <v>8000</v>
@@ -4708,7 +4708,7 @@
         <v>73</v>
       </c>
       <c r="AA46">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB46">
         <v>8000</v>
@@ -4797,7 +4797,7 @@
         <v>73</v>
       </c>
       <c r="AA47">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB47">
         <v>8000</v>
@@ -4886,7 +4886,7 @@
         <v>73</v>
       </c>
       <c r="AA48">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB48">
         <v>8000</v>
@@ -4975,7 +4975,7 @@
         <v>73</v>
       </c>
       <c r="AA49">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB49">
         <v>8000</v>
@@ -5064,7 +5064,7 @@
         <v>73</v>
       </c>
       <c r="AA50">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB50">
         <v>8000</v>
@@ -5153,7 +5153,7 @@
         <v>73</v>
       </c>
       <c r="AA51">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB51">
         <v>8000</v>
@@ -5242,7 +5242,7 @@
         <v>73</v>
       </c>
       <c r="AA52">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB52">
         <v>8000</v>
@@ -5331,7 +5331,7 @@
         <v>73</v>
       </c>
       <c r="AA53">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB53">
         <v>8000</v>
@@ -6844,7 +6844,7 @@
         <v>73</v>
       </c>
       <c r="AA70">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB70">
         <v>8000</v>
@@ -6933,7 +6933,7 @@
         <v>73</v>
       </c>
       <c r="AA71">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB71">
         <v>8000</v>
@@ -7022,7 +7022,7 @@
         <v>73</v>
       </c>
       <c r="AA72">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB72">
         <v>8000</v>
@@ -7111,7 +7111,7 @@
         <v>73</v>
       </c>
       <c r="AA73">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB73">
         <v>8000</v>
